--- a/UiPath/Week2/Project/Testing.xlsx
+++ b/UiPath/Week2/Project/Testing.xlsx
@@ -1,52 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
-  <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-  </sheets>
-  <definedNames/>
-  <calcPr/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <x:bookViews>
+    <x:workbookView firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" state="visible" r:id="rId4"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <x:si>
+    <x:t>chris</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Halu 1234567890</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border/>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-</styleSheet>
+<x:styleSheet xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2">
+    <x:font>
+      <x:sz val="10.0"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="lightGray"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border/>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyAlignment="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment vertical="bottom" wrapText="0" shrinkToFit="0" readingOrder="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+</x:styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -248,15 +277,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="0" summaryRight="0"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="15.85125" defaultRowHeight="15.75" customHeight="1"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="n">
+        <x:v>1234567890</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="n">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:drawing r:id="rId1"/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>